--- a/Collections/США/Регулярный чекан 1c 5c 10c 25c 50c 1$ 1900-present.xlsx
+++ b/Collections/США/Регулярный чекан 1c 5c 10c 25c 50c 1$ 1900-present.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="1¢" sheetId="1" r:id="rId1"/>
@@ -5943,6 +5943,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="156">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -7167,15 +7176,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7521,9 +7521,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="155"/>
-    <tableColumn id="2" name="Link" dataDxfId="154" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="153"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -7794,11 +7794,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U165"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L90" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="11" ySplit="2" topLeftCell="L102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D118" sqref="D118"/>
+      <selection pane="bottomRight" activeCell="O112" sqref="O112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11867,7 +11867,7 @@
         <v>1352</v>
       </c>
       <c r="H108" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" s="2">
         <v>0</v>
@@ -11877,7 +11877,7 @@
       </c>
       <c r="K108" s="20" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
       <c r="U108" s="3" t="str">
         <f t="shared" si="3"/>
@@ -12884,7 +12884,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H12 J11:J12 J14 H14 H120:J128 H15:J118">
-    <cfRule type="containsText" dxfId="152" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="155" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12901,7 +12901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95:J102">
-    <cfRule type="containsText" dxfId="151" priority="32" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="154" priority="32" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H95))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12918,7 +12918,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122:J128">
-    <cfRule type="containsText" dxfId="150" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="153" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H122))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12935,7 +12935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129:J129">
-    <cfRule type="containsText" dxfId="149" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="152" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H129))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12952,7 +12952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129:J129">
-    <cfRule type="containsText" dxfId="148" priority="16" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="151" priority="16" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H129))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12969,7 +12969,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I12 J4:J10 I14">
-    <cfRule type="containsText" dxfId="147" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -12984,7 +12984,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="146" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -12999,11 +12999,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13 J13">
-    <cfRule type="containsText" dxfId="145" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="148" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13 J13">
+  <conditionalFormatting sqref="J13 H13">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13016,7 +13016,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="144" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="147" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -13031,7 +13031,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J119">
-    <cfRule type="containsText" dxfId="143" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="146" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J119))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13048,7 +13048,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H119">
-    <cfRule type="containsText" dxfId="142" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="145" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H119))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13065,7 +13065,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I119">
-    <cfRule type="containsText" dxfId="141" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="144" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I119))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13100,7 +13100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -17978,7 +17978,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="I49:J51 H52:J127">
-    <cfRule type="containsText" dxfId="140" priority="94" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="143" priority="94" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H49))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="95">
@@ -17993,7 +17993,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H15 H25 H27 H34 I38 J25 H28:I33 H39:J41 H42:I42 H15:J24">
-    <cfRule type="containsText" dxfId="139" priority="86" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="142" priority="86" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18010,7 +18010,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I14">
-    <cfRule type="containsText" dxfId="138" priority="84" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="141" priority="84" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="85">
@@ -18025,7 +18025,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J14">
-    <cfRule type="containsText" dxfId="137" priority="82" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="140" priority="82" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="83">
@@ -18040,7 +18040,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="136" priority="80" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="139" priority="80" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="81">
@@ -18055,7 +18055,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="containsText" dxfId="135" priority="78" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="138" priority="78" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="79">
@@ -18070,7 +18070,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="134" priority="76" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="137" priority="76" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="77">
@@ -18085,7 +18085,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="133" priority="70" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="136" priority="70" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="71">
@@ -18100,7 +18100,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="132" priority="72" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="135" priority="72" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="73">
@@ -18115,7 +18115,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="131" priority="68" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="134" priority="68" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -18130,7 +18130,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="130" priority="66" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="66" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="67">
@@ -18145,7 +18145,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="containsText" dxfId="129" priority="64" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="64" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -18160,7 +18160,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="128" priority="62" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="62" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="63">
@@ -18175,7 +18175,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="containsText" dxfId="127" priority="60" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="60" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="61">
@@ -18190,7 +18190,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="containsText" dxfId="126" priority="58" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="58" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="59">
@@ -18205,7 +18205,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="containsText" dxfId="125" priority="56" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="56" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="57">
@@ -18220,7 +18220,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="124" priority="54" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="54" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -18235,7 +18235,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="containsText" dxfId="123" priority="52" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="52" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="53">
@@ -18250,7 +18250,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J35">
-    <cfRule type="containsText" dxfId="122" priority="50" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="50" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18267,7 +18267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="containsText" dxfId="121" priority="36" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="36" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="37">
@@ -18282,7 +18282,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="containsText" dxfId="120" priority="34" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="34" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18299,7 +18299,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="119" priority="32" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="32" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="33">
@@ -18314,7 +18314,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:J44 J45:J46 H45:I47 H48:H51">
-    <cfRule type="containsText" dxfId="118" priority="30" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="30" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H43))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="31">
@@ -18329,7 +18329,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="containsText" dxfId="117" priority="18" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="18" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J47))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18346,7 +18346,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="containsText" dxfId="116" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I48))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18363,7 +18363,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule type="containsText" dxfId="115" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J48))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -23763,7 +23763,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="J38:J48 K39:K48 I49:K123 L3:L11">
-    <cfRule type="containsText" dxfId="114" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23780,7 +23780,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I8 I16 I9:J15 I17:J17 I27:I35 I18:I25 K25:K26 K37:K38">
-    <cfRule type="containsText" dxfId="113" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23797,7 +23797,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J8">
-    <cfRule type="containsText" dxfId="112" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23814,7 +23814,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="111" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23831,7 +23831,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="110" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23848,7 +23848,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="109" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23865,7 +23865,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K19">
-    <cfRule type="containsText" dxfId="108" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23882,7 +23882,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L123">
-    <cfRule type="containsText" dxfId="107" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23899,7 +23899,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="106" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23916,7 +23916,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J36">
-    <cfRule type="containsText" dxfId="105" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23933,7 +23933,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:J37">
-    <cfRule type="containsText" dxfId="104" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23950,7 +23950,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:I48">
-    <cfRule type="containsText" dxfId="103" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23967,7 +23967,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="102" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23984,7 +23984,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="containsText" dxfId="101" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24001,7 +24001,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="100" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24018,7 +24018,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:K35 K27:K34">
-    <cfRule type="containsText" dxfId="99" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24035,7 +24035,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J33">
-    <cfRule type="containsText" dxfId="98" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24052,7 +24052,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:J25 K20:K24">
-    <cfRule type="containsText" dxfId="97" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24069,7 +24069,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="containsText" dxfId="96" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28722,7 +28722,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="I38:I48 J43:J48 J38:J41 K45:K48 L13:L19 I21:K24 I82:K104 K81 L21:L78 I49:K78 I80:K80 L80:L104">
-    <cfRule type="containsText" dxfId="95" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28739,7 +28739,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15 I14:K14 I13:J13 I3:J9 I10:K12 I16:K18 K14:K15 I25 I27 I29 I34 I28:K28 K27 I30:K30 I31:J33 K31:K34 I19:J19 I20">
-    <cfRule type="containsText" dxfId="94" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28756,7 +28756,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="containsText" dxfId="93" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28773,7 +28773,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L12 K3:K6">
-    <cfRule type="containsText" dxfId="92" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28790,7 +28790,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="91" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28807,7 +28807,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="containsText" dxfId="90" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28824,7 +28824,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="89" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28841,7 +28841,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="88" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28858,7 +28858,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="containsText" dxfId="87" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28875,7 +28875,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="86" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28892,7 +28892,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="85" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28909,7 +28909,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="containsText" dxfId="84" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28926,7 +28926,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="containsText" dxfId="83" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28943,7 +28943,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="containsText" dxfId="82" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28960,7 +28960,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="81" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28977,7 +28977,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="80" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28994,7 +28994,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="containsText" dxfId="79" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29011,7 +29011,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="containsText" dxfId="78" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29028,7 +29028,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="containsText" dxfId="77" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29045,7 +29045,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="76" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29062,7 +29062,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="containsText" dxfId="75" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29079,12 +29079,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:K44">
-    <cfRule type="containsText" dxfId="74" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K39))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="containsText" dxfId="73" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29101,7 +29101,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="containsText" dxfId="72" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29118,7 +29118,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:K36">
-    <cfRule type="containsText" dxfId="71" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29135,7 +29135,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="70" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29152,7 +29152,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="containsText" dxfId="69" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29169,7 +29169,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37">
-    <cfRule type="containsText" dxfId="68" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29186,7 +29186,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38">
-    <cfRule type="containsText" dxfId="67" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29215,7 +29215,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:L20">
-    <cfRule type="containsText" dxfId="66" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29232,7 +29232,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79:L79">
-    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I79))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29265,10 +29265,10 @@
   <dimension ref="A1:V139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D91" sqref="D91"/>
+      <selection pane="bottomRight" activeCell="K126" sqref="K126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34662,7 +34662,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" s="33" t="s">
         <v>3</v>
@@ -34676,7 +34676,7 @@
       </c>
       <c r="V126" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -34770,7 +34770,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="I50:K54 I39:I49 I55:J55 J46:J49 K44:K49 L13:L20 I56:K79 K82 I84:K126 I81:K81">
-    <cfRule type="containsText" dxfId="64" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34787,7 +34787,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I17 J14:J16 K3:K17 L3:L12 I18:K19 K32:K34 I23:K26 I20">
-    <cfRule type="containsText" dxfId="63" priority="80" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="80" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34804,7 +34804,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:L79 L84:L126 L81:L82">
-    <cfRule type="containsText" dxfId="62" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34821,7 +34821,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="containsText" dxfId="61" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34838,7 +34838,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="60" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34855,7 +34855,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="containsText" dxfId="59" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34872,7 +34872,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="58" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34889,7 +34889,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34906,7 +34906,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34923,7 +34923,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J8">
-    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34940,7 +34940,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I38">
-    <cfRule type="containsText" dxfId="54" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34957,7 +34957,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J38">
-    <cfRule type="containsText" dxfId="53" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34974,7 +34974,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="containsText" dxfId="52" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34991,7 +34991,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55">
-    <cfRule type="containsText" dxfId="51" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K55))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35008,7 +35008,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:J44 K39:K42">
-    <cfRule type="containsText" dxfId="50" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35025,7 +35025,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="containsText" dxfId="49" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35042,7 +35042,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K31">
-    <cfRule type="containsText" dxfId="48" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35059,7 +35059,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="containsText" dxfId="47" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35076,7 +35076,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="containsText" dxfId="46" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35093,7 +35093,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37">
-    <cfRule type="containsText" dxfId="45" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35110,7 +35110,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43">
-    <cfRule type="containsText" dxfId="44" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35127,7 +35127,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38">
-    <cfRule type="containsText" dxfId="43" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35144,7 +35144,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:K22">
-    <cfRule type="containsText" dxfId="42" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35161,7 +35161,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="containsText" dxfId="41" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35178,7 +35178,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="40" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35195,7 +35195,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="39" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35212,7 +35212,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="containsText" dxfId="38" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35229,7 +35229,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="containsText" dxfId="37" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35246,7 +35246,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="containsText" dxfId="36" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35263,7 +35263,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35280,7 +35280,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35297,7 +35297,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83:K83">
-    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I83))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35314,7 +35314,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L83">
-    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L83))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35331,7 +35331,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80:K80">
-    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35348,7 +35348,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L80">
-    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L80))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40011,7 +40011,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="I40:K79 I81:K103 K80">
-    <cfRule type="containsText" dxfId="29" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I40))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40028,7 +40028,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:K24 I25 I28:I29 I32 I39 I38:J38 I30:J31 I26:J27 K39 K26:K32">
-    <cfRule type="containsText" dxfId="28" priority="78" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="78" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40045,7 +40045,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L103">
-    <cfRule type="containsText" dxfId="27" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40062,7 +40062,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="26" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40079,7 +40079,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="containsText" dxfId="25" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40096,7 +40096,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="containsText" dxfId="24" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40113,7 +40113,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40130,7 +40130,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="22" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40147,7 +40147,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="21" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40164,7 +40164,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="20" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40181,7 +40181,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="19" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40198,7 +40198,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I23">
-    <cfRule type="containsText" dxfId="18" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40215,7 +40215,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J23">
-    <cfRule type="containsText" dxfId="17" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40232,7 +40232,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="containsText" dxfId="16" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40249,7 +40249,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="15" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40266,7 +40266,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="containsText" dxfId="14" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40283,7 +40283,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="containsText" dxfId="13" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40300,7 +40300,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K23">
-    <cfRule type="containsText" dxfId="12" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40317,7 +40317,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40334,7 +40334,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="containsText" dxfId="10" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40351,7 +40351,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:I37">
-    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40368,7 +40368,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="8" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40385,7 +40385,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40402,7 +40402,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="containsText" dxfId="6" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40419,7 +40419,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:J37">
-    <cfRule type="containsText" dxfId="5" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40436,7 +40436,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="containsText" dxfId="4" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40453,7 +40453,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40470,7 +40470,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:K37">
-    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40487,7 +40487,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38">
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40504,7 +40504,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/США/Регулярный чекан 1c 5c 10c 25c 50c 1$ 1900-present.xlsx
+++ b/Collections/США/Регулярный чекан 1c 5c 10c 25c 50c 1$ 1900-present.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1¢" sheetId="1" r:id="rId1"/>
@@ -7794,7 +7794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -13003,7 +13003,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13 H13">
+  <conditionalFormatting sqref="H13 J13">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -29264,7 +29264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
